--- a/biology/Botanique/Jardin_Compans-Caffarelli/Jardin_Compans-Caffarelli.xlsx
+++ b/biology/Botanique/Jardin_Compans-Caffarelli/Jardin_Compans-Caffarelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Compans-Caffarelli est un jardin public situé dans le quartier Compans-Caffarelli de Toulouse. Il a été créé en 1980 à l'initiative du maire Pierre Baudis et fait partie d'une opération d'urbanisme globale visant à remplacer le site des casernes de Compans-Cafferelli, abandonnées par l'armée[A 1].
@@ -524,9 +536,11 @@
           <t>Œuvres publiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>monument à Taras Chevtchenko.Durant l'été 2022, dans le contexte de l'invasion de l'Ukraine par la Russie et afin de lui assurer une meilleure visibilité dans la ville, le monument est déplacé à l'entrée sud du jardin Compans-Caffarelli. Il sert toujours de lieu de rassemblement à la communauté ukrainienne[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>monument à Taras Chevtchenko.Durant l'été 2022, dans le contexte de l'invasion de l'Ukraine par la Russie et afin de lui assurer une meilleure visibilité dans la ville, le monument est déplacé à l'entrée sud du jardin Compans-Caffarelli. Il sert toujours de lieu de rassemblement à la communauté ukrainienne.</t>
         </is>
       </c>
     </row>
